--- a/bib/Master_ETTI_M21_and_M25_Course_Structure_and_OIL.xlsx
+++ b/bib/Master_ETTI_M21_and_M25_Course_Structure_and_OIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uidl9651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06_Studenti\universitate\Master ETTI 2017\EmbSysD\bib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>System Concepts</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Exemple pentru systeme de laborator (pentru amandoua cursurile)</t>
+  </si>
+  <si>
+    <t>Fill the MBD chapters with discussion topics</t>
+  </si>
+  <si>
+    <t>Have a first initial draft curicula</t>
   </si>
 </sst>
 </file>
@@ -713,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1058,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1201,7 @@
         <v>42916</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,7 +1235,7 @@
         <v>42916</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1246,6 +1252,40 @@
         <v>42916</v>
       </c>
       <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42923</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42923</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
     </row>
